--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,68 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFAC944-7E1B-41AF-8A0B-EA999056660F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-17055" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Itk</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>chamomile_1</t>
-  </si>
-  <si>
-    <t>chamomile_2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,145 +420,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Инфраструктура</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Требуется</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ромашка 1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ромашка 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>1175727.28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1043307.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>947428.26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1006766.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>1175727.28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1043307.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>918589.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1035605.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>898541.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1175727.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1339052.79</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1289588.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="B5" t="n">
+        <v>898541.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1175727.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1184158.34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1444482.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>898541.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1175727.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1268839.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1359801.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>1175727.28</v>
       </c>
-      <c r="C2">
+      <c r="C7" t="n">
         <v>1043307.5</v>
       </c>
-      <c r="D2">
-        <v>1113500.359968998</v>
-      </c>
-      <c r="E2">
-        <v>840694.86003100243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1175727.28</v>
-      </c>
-      <c r="C3">
-        <v>1043307.5</v>
-      </c>
-      <c r="D3">
-        <v>933709.20395835966</v>
-      </c>
-      <c r="E3">
-        <v>1020486.01604164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>898541.5</v>
-      </c>
-      <c r="C4">
-        <v>1175727.5</v>
-      </c>
-      <c r="D4">
-        <v>1085786.096540658</v>
-      </c>
-      <c r="E4">
-        <v>1542854.903459342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>898541.5</v>
-      </c>
-      <c r="C5">
-        <v>1175727.5</v>
-      </c>
-      <c r="D5">
-        <v>1157649.0311882859</v>
-      </c>
-      <c r="E5">
-        <v>1470991.9688117141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>898541.5</v>
-      </c>
-      <c r="C6">
-        <v>1175727.5</v>
-      </c>
-      <c r="D6">
-        <v>1335741.1792348879</v>
-      </c>
-      <c r="E6">
-        <v>1292899.8207651121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1175727.28</v>
-      </c>
-      <c r="C7">
-        <v>1043307.5</v>
-      </c>
-      <c r="D7">
-        <v>1106571.3391823671</v>
-      </c>
-      <c r="E7">
-        <v>847623.88081763289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>6657105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <f>SUM(B2:B7,D2:D7,E2:E7)/3</f>
-        <v>6657105.0000000009</v>
+      <c r="D7" t="n">
+        <v>1094370.48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>859824.74</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,37 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DC35C-4EA3-464A-9065-10320A5D030E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-38520" yWindow="-17055" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Инфраструктура</t>
+  </si>
+  <si>
+    <t>Требуется</t>
+  </si>
+  <si>
+    <t>Ромашка 1</t>
+  </si>
+  <si>
+    <t>Ромашка 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +77,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,141 +401,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Инфраструктура</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Требуется</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 2</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1175727.28</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1043307.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>947428.26</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1006766.96</v>
+      <c r="B2">
+        <v>78936561</v>
+      </c>
+      <c r="C2">
+        <v>79883799.731999993</v>
+      </c>
+      <c r="D2">
+        <v>79044477.280000001</v>
+      </c>
+      <c r="E2">
+        <v>81670360.920000002</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1175727.28</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1043307.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>918589.38</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1035605.84</v>
+      <c r="B3">
+        <v>5901440</v>
+      </c>
+      <c r="C3">
+        <v>6048976</v>
+      </c>
+      <c r="D3">
+        <v>5639157.3399999999</v>
+      </c>
+      <c r="E3">
+        <v>6606330.6600000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>898541.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1175727.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1339052.79</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1289588.21</v>
+      <c r="B4">
+        <v>929918</v>
+      </c>
+      <c r="C4">
+        <v>958745.45799999998</v>
+      </c>
+      <c r="D4">
+        <v>952867.08</v>
+      </c>
+      <c r="E4">
+        <v>993451.29</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>898541.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1175727.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1184158.34</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1444482.66</v>
+      <c r="B5">
+        <v>23455861</v>
+      </c>
+      <c r="C5">
+        <v>23760787.193</v>
+      </c>
+      <c r="D5">
+        <v>26248575.829999998</v>
+      </c>
+      <c r="E5">
+        <v>21577924.75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>898541.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1175727.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1268839.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1359801.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1175727.28</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1043307.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1094370.48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>859824.74</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>109223780</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
+        <v>110652308.383</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>111885077.53</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>110848067.62</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,68 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DC35C-4EA3-464A-9065-10320A5D030E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-17055" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Инфраструктура</t>
-  </si>
-  <si>
-    <t>Требуется</t>
-  </si>
-  <si>
-    <t>Ромашка 1</t>
-  </si>
-  <si>
-    <t>Ромашка 2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,119 +420,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Работы </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Инфраструктура</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Требуется</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ромашка 1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ромашка 2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ПНР</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>78936561</v>
       </c>
-      <c r="C2">
-        <v>79883799.731999993</v>
-      </c>
-      <c r="D2">
-        <v>79044477.280000001</v>
-      </c>
-      <c r="E2">
-        <v>81670360.920000002</v>
+      <c r="C2" t="n">
+        <v>82107434.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84947061.31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>82438681.94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ШМР</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>5901440</v>
       </c>
-      <c r="C3">
-        <v>6048976</v>
-      </c>
-      <c r="D3">
-        <v>5639157.3399999999</v>
-      </c>
-      <c r="E3">
-        <v>6606330.6600000001</v>
+      <c r="C3" t="n">
+        <v>6138500.25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5428520.27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7085540.48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Оборудование</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>929918</v>
       </c>
-      <c r="C4">
-        <v>958745.45799999998</v>
-      </c>
-      <c r="D4">
-        <v>952867.08</v>
-      </c>
-      <c r="E4">
-        <v>993451.29</v>
+      <c r="C4" t="n">
+        <v>967272.71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>991823.78</v>
+      </c>
+      <c r="E4" t="n">
+        <v>980076.35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ПО</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>23455861</v>
       </c>
-      <c r="C5">
-        <v>23760787.193</v>
-      </c>
-      <c r="D5">
-        <v>26248575.829999998</v>
-      </c>
-      <c r="E5">
-        <v>21577924.75</v>
+      <c r="C5" t="n">
+        <v>24398080.59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21360646.84</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28377733.93</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>109223780</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
-        <v>110652308.383</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>111885077.53</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>110848067.62</v>
+      <c r="C6" t="n">
+        <v>113611288.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>112728052.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>118882032.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,96 +463,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ПНР</t>
+          <t>Поставка оборудования по спецификации ё</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78936561</v>
+        <v>779658.62</v>
       </c>
       <c r="C2" t="n">
-        <v>82107434.75</v>
+        <v>792874.55</v>
       </c>
       <c r="D2" t="n">
-        <v>84947061.31</v>
+        <v>813520.58</v>
       </c>
       <c r="E2" t="n">
-        <v>82438681.94</v>
+        <v>785444.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ШМР</t>
+          <t>Итого</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5901440</v>
+        <v>779658.62</v>
       </c>
       <c r="C3" t="n">
-        <v>6138500.25</v>
+        <v>792874.55</v>
       </c>
       <c r="D3" t="n">
-        <v>5428520.27</v>
+        <v>813520.58</v>
       </c>
       <c r="E3" t="n">
-        <v>7085540.48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Оборудование</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>929918</v>
-      </c>
-      <c r="C4" t="n">
-        <v>967272.71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>991823.78</v>
-      </c>
-      <c r="E4" t="n">
-        <v>980076.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ПО</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>23455861</v>
-      </c>
-      <c r="C5" t="n">
-        <v>24398080.59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21360646.84</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28377733.93</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>109223780</v>
-      </c>
-      <c r="C6" t="n">
-        <v>113611288.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>112728052.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>118882032.7</v>
+        <v>785444.45</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -451,32 +451,38 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Ромашка 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Ромашка 1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Поставка оборудования по спецификации ё</t>
+          <t>Шеф-монтаж и Пуско-наладочные 
+работы оборудования АСУТП (ПНР 
+верхнего уровня без реализации
+задач по оптимальной 
+транспортировке материалов и масел 
+по трубопроводам со сложной 
+разветвленной структурой).</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779658.62</v>
+        <v>7785599.88</v>
       </c>
       <c r="C2" t="n">
-        <v>792874.55</v>
+        <v>7960869.48</v>
       </c>
       <c r="D2" t="n">
-        <v>813520.58</v>
+        <v>8266746.06</v>
       </c>
       <c r="E2" t="n">
-        <v>785444.45</v>
+        <v>7830262.5</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>779658.62</v>
+        <v>7785599.88</v>
       </c>
       <c r="C3" t="n">
-        <v>792874.55</v>
+        <v>7960869.48</v>
       </c>
       <c r="D3" t="n">
-        <v>813520.58</v>
+        <v>8266746.06</v>
       </c>
       <c r="E3" t="n">
-        <v>785444.45</v>
+        <v>7830262.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -463,26 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Шеф-монтаж и Пуско-наладочные 
-работы оборудования АСУТП (ПНР 
-верхнего уровня без реализации
-задач по оптимальной 
-транспортировке материалов и масел 
-по трубопроводам со сложной 
-разветвленной структурой).</t>
+          <t xml:space="preserve">Проектно-изыскательские работы СУГ </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7785599.88</v>
+        <v>6684277</v>
       </c>
       <c r="C2" t="n">
-        <v>7960869.48</v>
+        <v>6871168.97</v>
       </c>
       <c r="D2" t="n">
-        <v>8266746.06</v>
+        <v>6800237.57</v>
       </c>
       <c r="E2" t="n">
-        <v>7830262.5</v>
+        <v>7128992.34</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7785599.88</v>
+        <v>6684277</v>
       </c>
       <c r="C3" t="n">
-        <v>7960869.48</v>
+        <v>6871168.97</v>
       </c>
       <c r="D3" t="n">
-        <v>8266746.06</v>
+        <v>6800237.57</v>
       </c>
       <c r="E3" t="n">
-        <v>7830262.5</v>
+        <v>7128992.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Ромашка 1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Ромашка 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 1</t>
         </is>
       </c>
     </row>
@@ -467,35 +467,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6684277</v>
+        <v>6527304.75</v>
       </c>
       <c r="C2" t="n">
-        <v>6871168.97</v>
+        <v>6765708.88</v>
       </c>
       <c r="D2" t="n">
-        <v>6800237.57</v>
+        <v>7597288.38</v>
       </c>
       <c r="E2" t="n">
-        <v>7128992.34</v>
+        <v>6172533.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Тест 2 </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1370024</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1420062.94</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1494867</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1395297.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Тест 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17963757.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18619868.41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17259695.73</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20636151.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>6684277</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6871168.97</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6800237.57</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7128992.34</v>
+      <c r="B5" t="n">
+        <v>25861086.53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26805640.23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26351851.11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28203983.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Ромашка 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Ромашка 1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 2</t>
         </is>
       </c>
     </row>
@@ -470,13 +470,13 @@
         <v>6527304.75</v>
       </c>
       <c r="C2" t="n">
-        <v>6765708.88</v>
+        <v>6827304.75</v>
       </c>
       <c r="D2" t="n">
-        <v>7597288.38</v>
+        <v>7817172.23</v>
       </c>
       <c r="E2" t="n">
-        <v>6172533.51</v>
+        <v>6137437.27</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1370024</v>
       </c>
       <c r="C3" t="n">
-        <v>1420062.94</v>
+        <v>11570024</v>
       </c>
       <c r="D3" t="n">
-        <v>1494867</v>
+        <v>12941130.91</v>
       </c>
       <c r="E3" t="n">
-        <v>1395297.82</v>
+        <v>20398917.09</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>17963757.78</v>
       </c>
       <c r="C4" t="n">
-        <v>18619868.41</v>
+        <v>19963757.78</v>
       </c>
       <c r="D4" t="n">
-        <v>17259695.73</v>
+        <v>21300441.62</v>
       </c>
       <c r="E4" t="n">
-        <v>20636151.72</v>
+        <v>20627073.94</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>25861086.53</v>
       </c>
       <c r="C5" t="n">
-        <v>26805640.23</v>
+        <v>38361086.53</v>
       </c>
       <c r="D5" t="n">
-        <v>26351851.11</v>
+        <v>42058744.76000001</v>
       </c>
       <c r="E5" t="n">
-        <v>28203983.05</v>
+        <v>47163428.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -473,10 +473,10 @@
         <v>6827304.75</v>
       </c>
       <c r="D2" t="n">
-        <v>7817172.23</v>
+        <v>4966935.23</v>
       </c>
       <c r="E2" t="n">
-        <v>6137437.27</v>
+        <v>8987674.27</v>
       </c>
     </row>
     <row r="3">
@@ -492,10 +492,10 @@
         <v>11570024</v>
       </c>
       <c r="D3" t="n">
-        <v>12941130.91</v>
+        <v>12914902.15</v>
       </c>
       <c r="E3" t="n">
-        <v>20398917.09</v>
+        <v>20425145.85</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +511,10 @@
         <v>19963757.78</v>
       </c>
       <c r="D4" t="n">
-        <v>21300441.62</v>
+        <v>14782918.29</v>
       </c>
       <c r="E4" t="n">
-        <v>20627073.94</v>
+        <v>27144597.27</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>38361086.53</v>
       </c>
       <c r="D5" t="n">
-        <v>42058744.76000001</v>
+        <v>32664755.67</v>
       </c>
       <c r="E5" t="n">
-        <v>47163428.3</v>
+        <v>56557417.39</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A61DFEC-AE2F-46AE-BBC1-8F738FBADF6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Работы</t>
+  </si>
+  <si>
+    <t>Инфраструктура</t>
+  </si>
+  <si>
+    <t>Ромашка 1</t>
+  </si>
+  <si>
+    <t>Ромашка 2</t>
+  </si>
+  <si>
+    <t>Требуется</t>
+  </si>
+  <si>
+    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, ЗПИ, РКД)</t>
+  </si>
+  <si>
+    <t>Инжиниринг (разработка ППО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШМР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПНР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,120 +411,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Работы </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Инфраструктура</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Требуется</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ромашка 1</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Проектно-изыскательские работы СУГ </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6527304.75</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6827304.75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4966935.23</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8987674.27</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>122396009</v>
+      </c>
+      <c r="C2">
+        <v>126503721.87</v>
+      </c>
+      <c r="D2">
+        <v>125945776.03</v>
+      </c>
+      <c r="E2">
+        <v>124948502.3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Тест 2 </t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1370024</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11570024</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12914902.15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20425145.85</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8919023</v>
+      </c>
+      <c r="C3">
+        <v>10514452.85</v>
+      </c>
+      <c r="D3">
+        <v>7881595.3399999999</v>
+      </c>
+      <c r="E3">
+        <v>9105023.7300000004</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Тест 3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17963757.78</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19963757.78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14782918.29</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27144597.27</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1617678</v>
+      </c>
+      <c r="C4">
+        <v>1639842.45</v>
+      </c>
+      <c r="D4">
+        <v>1696720.59</v>
+      </c>
+      <c r="E4">
+        <v>1651413.68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25861086.53</v>
-      </c>
-      <c r="C5" t="n">
-        <v>38361086.53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32664755.67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56557417.39</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8422251</v>
+      </c>
+      <c r="C5">
+        <v>10800529.09</v>
+      </c>
+      <c r="D5">
+        <v>6570895.46</v>
+      </c>
+      <c r="E5">
+        <v>8597891.8499999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>141354961</v>
+      </c>
+      <c r="C6">
+        <v>149458546.25999999</v>
+      </c>
+      <c r="D6">
+        <v>142094987.41999999</v>
+      </c>
+      <c r="E6">
+        <v>144302831.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A61DFEC-AE2F-46AE-BBC1-8F738FBADF6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FBBD4-47D5-44BA-A66B-B6F6B54F88EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -414,13 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -445,16 +445,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>122396009</v>
+        <v>129574609</v>
       </c>
       <c r="C2">
-        <v>126503721.87</v>
+        <v>134475959.25999999</v>
       </c>
       <c r="D2">
-        <v>125945776.03</v>
+        <v>130744144.18000001</v>
       </c>
       <c r="E2">
-        <v>124948502.3</v>
+        <v>131598237.48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -462,16 +462,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8919023</v>
+        <v>8422251</v>
       </c>
       <c r="C3">
-        <v>10514452.85</v>
+        <v>6242977.6299999999</v>
       </c>
       <c r="D3">
-        <v>7881595.3399999999</v>
+        <v>10996127.300000001</v>
       </c>
       <c r="E3">
-        <v>9105023.7300000004</v>
+        <v>8553785.3100000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -482,13 +482,13 @@
         <v>1617678</v>
       </c>
       <c r="C4">
-        <v>1639842.45</v>
+        <v>2122266.54</v>
       </c>
       <c r="D4">
-        <v>1696720.59</v>
+        <v>1188881.6100000001</v>
       </c>
       <c r="E4">
-        <v>1651413.68</v>
+        <v>1642942.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -496,16 +496,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8422251</v>
+        <v>8919023</v>
       </c>
       <c r="C5">
-        <v>10800529.09</v>
+        <v>10478509.51</v>
       </c>
       <c r="D5">
-        <v>6570895.46</v>
+        <v>7777414.4100000001</v>
       </c>
       <c r="E5">
-        <v>8597891.8499999996</v>
+        <v>9058315.6400000006</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -513,16 +513,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>141354961</v>
+        <v>148533561</v>
       </c>
       <c r="C6">
-        <v>149458546.25999999</v>
+        <v>153319712.94</v>
       </c>
       <c r="D6">
-        <v>142094987.41999999</v>
+        <v>150706567.5</v>
       </c>
       <c r="E6">
-        <v>144302831.56</v>
+        <v>150853280.47999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FBBD4-47D5-44BA-A66B-B6F6B54F88EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA9CEA-A1C7-471F-8EE0-8EFEA9CD76E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Работы</t>
   </si>
@@ -37,16 +37,13 @@
     <t>Требуется</t>
   </si>
   <si>
-    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, ЗПИ, РКД)</t>
-  </si>
-  <si>
-    <t>Инжиниринг (разработка ППО)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШМР в объеме АСУТП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПНР в объеме АСУТП </t>
+    <t>ПИР</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ</t>
+  </si>
+  <si>
+    <t>Экспертиза ПБ</t>
   </si>
   <si>
     <t>Итого</t>
@@ -412,15 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -445,16 +445,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>129574609</v>
+        <v>3911008</v>
       </c>
       <c r="C2">
-        <v>134475959.25999999</v>
+        <v>3880864.79</v>
       </c>
       <c r="D2">
-        <v>130744144.18000001</v>
+        <v>4811034.09</v>
       </c>
       <c r="E2">
-        <v>131598237.48</v>
+        <v>4200968.96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -462,16 +462,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8422251</v>
+        <v>1220844.24</v>
       </c>
       <c r="C3">
-        <v>6242977.6299999999</v>
+        <v>1529080.29</v>
       </c>
       <c r="D3">
-        <v>10996127.300000001</v>
+        <v>1184147.28</v>
       </c>
       <c r="E3">
-        <v>8553785.3100000005</v>
+        <v>1311357.27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -479,16 +479,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1617678</v>
+        <v>600000</v>
       </c>
       <c r="C4">
-        <v>2122266.54</v>
+        <v>711444.04</v>
       </c>
       <c r="D4">
-        <v>1188881.6100000001</v>
+        <v>622007.42000000004</v>
       </c>
       <c r="E4">
-        <v>1642942.05</v>
+        <v>644483.81999999995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -496,33 +496,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8919023</v>
+        <v>5731852.2400000002</v>
       </c>
       <c r="C5">
-        <v>10478509.51</v>
+        <v>6121389.1200000001</v>
       </c>
       <c r="D5">
-        <v>7777414.4100000001</v>
+        <v>6617188.79</v>
       </c>
       <c r="E5">
-        <v>9058315.6400000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>148533561</v>
-      </c>
-      <c r="C6">
-        <v>153319712.94</v>
-      </c>
-      <c r="D6">
-        <v>150706567.5</v>
-      </c>
-      <c r="E6">
-        <v>150853280.47999999</v>
+        <v>6156810.0500000007</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA9CEA-A1C7-471F-8EE0-8EFEA9CD76E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C6A03-09BF-468B-9E51-724AD60ED59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="-21165" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Работы</t>
-  </si>
-  <si>
-    <t>Инфраструктура</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Unnamed: 0</t>
   </si>
   <si>
     <t>Ромашка 1</t>
@@ -37,13 +42,19 @@
     <t>Требуется</t>
   </si>
   <si>
-    <t>ПИР</t>
-  </si>
-  <si>
-    <t>Разработка ТЗ</t>
-  </si>
-  <si>
-    <t>Экспертиза ПБ</t>
+    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, обучения, ЗПИ и РКД)</t>
+  </si>
+  <si>
+    <t>Инжиниринг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШМР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПНР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t>Метрологическое обеспечение</t>
   </si>
   <si>
     <t>Итого</t>
@@ -409,103 +420,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>3911008</v>
+        <v>129574609</v>
       </c>
       <c r="C2">
-        <v>3880864.79</v>
+        <v>135566633.56</v>
       </c>
       <c r="D2">
-        <v>4811034.09</v>
+        <v>136861349.16999999</v>
       </c>
       <c r="E2">
-        <v>4200968.96</v>
+        <v>134000863.91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1220844.24</v>
+        <v>8422251</v>
       </c>
       <c r="C3">
-        <v>1529080.29</v>
+        <v>8739594.0999999996</v>
       </c>
       <c r="D3">
-        <v>1184147.28</v>
+        <v>8968017.5</v>
       </c>
       <c r="E3">
-        <v>1311357.27</v>
+        <v>8709954.1999999993</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>600000</v>
+        <v>1617678</v>
       </c>
       <c r="C4">
-        <v>711444.04</v>
+        <v>1637515.42</v>
       </c>
       <c r="D4">
-        <v>622007.42000000004</v>
+        <v>1763619.71</v>
       </c>
       <c r="E4">
-        <v>644483.81999999995</v>
+        <v>1672937.71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8919023</v>
+      </c>
+      <c r="C5">
+        <v>10956969.699999999</v>
+      </c>
+      <c r="D5">
+        <v>7795094.9400000004</v>
+      </c>
+      <c r="E5">
+        <v>9223695.8800000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>5731852.2400000002</v>
-      </c>
-      <c r="C5">
-        <v>6121389.1200000001</v>
-      </c>
-      <c r="D5">
-        <v>6617188.79</v>
-      </c>
-      <c r="E5">
-        <v>6156810.0500000007</v>
+      <c r="B6">
+        <v>6214035</v>
+      </c>
+      <c r="C6">
+        <v>6707779.6900000004</v>
+      </c>
+      <c r="D6">
+        <v>6357102.6500000004</v>
+      </c>
+      <c r="E6">
+        <v>6426305.7800000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>154747596</v>
+      </c>
+      <c r="C7">
+        <v>163608492.47</v>
+      </c>
+      <c r="D7">
+        <v>161745183.97</v>
+      </c>
+      <c r="E7">
+        <v>160033757.47999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,36 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C6A03-09BF-468B-9E51-724AD60ED59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED304B5-4C23-443E-BBC9-23CE78F71FFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="-21165" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Работы</t>
+  </si>
+  <si>
+    <t>Инфраструктура</t>
+  </si>
+  <si>
+    <t>Требуется</t>
   </si>
   <si>
     <t>Ромашка 1</t>
@@ -39,25 +37,7 @@
     <t>Ромашка 2</t>
   </si>
   <si>
-    <t>Требуется</t>
-  </si>
-  <si>
-    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, обучения, ЗПИ и РКД)</t>
-  </si>
-  <si>
-    <t>Инжиниринг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШМР в объеме АСУТП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПНР в объеме АСУТП </t>
-  </si>
-  <si>
-    <t>Метрологическое обеспечение</t>
-  </si>
-  <si>
-    <t>Итого</t>
+    <t>Обследование объекта и разработка ТЗ</t>
   </si>
 </sst>
 </file>
@@ -420,136 +400,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>129574609</v>
+        <v>5315636</v>
       </c>
       <c r="C2">
-        <v>135566633.56</v>
+        <v>5456405.9100000001</v>
       </c>
       <c r="D2">
-        <v>136861349.16999999</v>
+        <v>5709879.7000000002</v>
       </c>
       <c r="E2">
-        <v>134000863.91</v>
+        <v>5343702.03</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3">
-        <v>8422251</v>
+        <v>5315636</v>
       </c>
       <c r="C3">
-        <v>8739594.0999999996</v>
+        <v>5456405.9100000001</v>
       </c>
       <c r="D3">
-        <v>8968017.5</v>
+        <v>5709879.7000000002</v>
       </c>
       <c r="E3">
-        <v>8709954.1999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1617678</v>
-      </c>
-      <c r="C4">
-        <v>1637515.42</v>
-      </c>
-      <c r="D4">
-        <v>1763619.71</v>
-      </c>
-      <c r="E4">
-        <v>1672937.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>8919023</v>
-      </c>
-      <c r="C5">
-        <v>10956969.699999999</v>
-      </c>
-      <c r="D5">
-        <v>7795094.9400000004</v>
-      </c>
-      <c r="E5">
-        <v>9223695.8800000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>6214035</v>
-      </c>
-      <c r="C6">
-        <v>6707779.6900000004</v>
-      </c>
-      <c r="D6">
-        <v>6357102.6500000004</v>
-      </c>
-      <c r="E6">
-        <v>6426305.7800000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>154747596</v>
-      </c>
-      <c r="C7">
-        <v>163608492.47</v>
-      </c>
-      <c r="D7">
-        <v>161745183.97</v>
-      </c>
-      <c r="E7">
-        <v>160033757.47999999</v>
+        <v>5343702.03</v>
       </c>
     </row>
   </sheetData>
